--- a/JOGOS/2023-07-29_over05ht.xlsx
+++ b/JOGOS/2023-07-29_over05ht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -46,19 +46,76 @@
     <t>FT_Odd_BTTS_Yes</t>
   </si>
   <si>
-    <t>28/07/2023</t>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>GERMANY - 2. BUNDESLIGA</t>
-  </si>
-  <si>
-    <t>Hamburger SV</t>
-  </si>
-  <si>
-    <t>Schalke</t>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>JAPAN - J2 LEAGUE</t>
+  </si>
+  <si>
+    <t>NORWAY - ELITESERIEN</t>
+  </si>
+  <si>
+    <t>ARMENIA - PREMIER LEAGUE</t>
+  </si>
+  <si>
+    <t>SWITZERLAND - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE A</t>
+  </si>
+  <si>
+    <t>Tochigi SC</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
+    <t>Valerenga</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Servette</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Kofu</t>
+  </si>
+  <si>
+    <t>Fujieda MYFC</t>
+  </si>
+  <si>
+    <t>Sandefjord</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Flamengo RJ</t>
   </si>
 </sst>
 </file>
@@ -416,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +513,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -465,28 +522,203 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>3.1</v>
+      </c>
+      <c r="H2">
+        <v>3.1</v>
+      </c>
+      <c r="I2">
+        <v>2.45</v>
+      </c>
+      <c r="J2">
+        <v>2.5</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>2.15</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>4.75</v>
+      </c>
+      <c r="I4">
+        <v>5.5</v>
+      </c>
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>2.3</v>
-      </c>
-      <c r="H2">
-        <v>3.75</v>
-      </c>
-      <c r="I2">
-        <v>2.8</v>
-      </c>
-      <c r="J2">
-        <v>1.53</v>
-      </c>
-      <c r="K2">
-        <v>1.44</v>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>2.21</v>
+      </c>
+      <c r="H5">
+        <v>3.3</v>
+      </c>
+      <c r="I5">
+        <v>3.09</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>1.85</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3.8</v>
+      </c>
+      <c r="J6">
+        <v>1.67</v>
+      </c>
+      <c r="K6">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>2.2</v>
+      </c>
+      <c r="H7">
+        <v>3.25</v>
+      </c>
+      <c r="I7">
+        <v>3.4</v>
+      </c>
+      <c r="J7">
+        <v>2.1</v>
+      </c>
+      <c r="K7">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
